--- a/biology/Médecine/Guy_Buisson/Guy_Buisson.xlsx
+++ b/biology/Médecine/Guy_Buisson/Guy_Buisson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guy Buisson, né en 1943 à Saint-Étienne, est un médecin et anthropologue français.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Guy Buisson nait en 1943 à Saint-Étienne d'une mère secrétaire et d'un père comptable.
-Il pratique la médecine en tant que gynécologue-obstétricien de 1976 à 2008[2].
-Il poursuit ensuite des études à l'Université Lumière Lyon 2 et en sort titulaire d'un Master 2 Recherche en Anthropologie en 2014[3].
-Il fait des collectionneurs le thème principal de ses recherches[4].
-Il est lui-même collectionneur de pots à tabac[5].
+Il pratique la médecine en tant que gynécologue-obstétricien de 1976 à 2008.
+Il poursuit ensuite des études à l'Université Lumière Lyon 2 et en sort titulaire d'un Master 2 Recherche en Anthropologie en 2014.
+Il fait des collectionneurs le thème principal de ses recherches.
+Il est lui-même collectionneur de pots à tabac.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2010 : Une collection de pots à tabac  (ISBN 2-9163-9343-9)
 2019 : Homo collector, une anthropologie du collectionneur  (ISBN 978-2-310-04471-4)</t>
